--- a/VersionRecords/Version3.1.1/版本Bug和特性计划及评审表v3.1.1_EQ组.xlsx
+++ b/VersionRecords/Version3.1.1/版本Bug和特性计划及评审表v3.1.1_EQ组.xlsx
@@ -1,13 +1,8 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="5" rupBuild="4505"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\GitDoc\Mogo_Doc\VersionRecords\Version3.1.1\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20640" windowHeight="11760"/>
   </bookViews>
@@ -16,14 +11,14 @@
     <sheet name="数据修复" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'版本3.1.1新特性|Fix Bug'!$A$1:$T$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'版本3.1.1新特性|Fix Bug'!$A$1:$S$40</definedName>
   </definedNames>
-  <calcPr calcId="124519" concurrentCalc="0"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="300" uniqueCount="119">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="408" uniqueCount="125">
   <si>
     <t>No</t>
   </si>
@@ -483,14 +478,38 @@
   </si>
   <si>
     <t>【租客App】蘑菇宝审核通过的租客不允许在个人中心修改姓名</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>周蓉</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>通过</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>能</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>周蓉/吴永余</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>吴永余</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>原生APP仍在测试阶段，后端无版本可测</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="18" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="18">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
@@ -614,7 +633,7 @@
       <charset val="134"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -636,6 +655,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -746,7 +771,7 @@
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="41">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -818,6 +843,57 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="2" fillId="5" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="4" fillId="5" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="5" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="2" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="17">
@@ -841,6 +917,74 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -860,7 +1004,7 @@
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="FFFFFF"/>
+        <a:sysClr val="window" lastClr="C7EDCC"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="1F497D"/>
@@ -1180,14 +1324,17 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:T98"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H7" sqref="H7"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="L32" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="C1" sqref="C1"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
+      <selection pane="bottomRight" activeCell="L5" sqref="L5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="5.875" style="9" customWidth="1"/>
     <col min="2" max="2" width="91.375" style="10" customWidth="1"/>
@@ -1212,7 +1359,7 @@
     <col min="21" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" s="1" customFormat="1" ht="41.25" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:19" s="1" customFormat="1" ht="41.25" thickBot="1">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -1271,7 +1418,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:19" ht="21.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:19" ht="21.75" customHeight="1">
       <c r="A2" s="8">
         <v>1</v>
       </c>
@@ -1303,16 +1450,24 @@
       <c r="K2" s="8" t="s">
         <v>48</v>
       </c>
-      <c r="L2" s="18"/>
-      <c r="M2" s="20"/>
-      <c r="N2" s="21"/>
-      <c r="O2" s="20"/>
+      <c r="L2" s="18" t="s">
+        <v>119</v>
+      </c>
+      <c r="M2" s="20" t="s">
+        <v>120</v>
+      </c>
+      <c r="N2" s="21">
+        <v>42479</v>
+      </c>
+      <c r="O2" s="20" t="s">
+        <v>121</v>
+      </c>
       <c r="P2" s="20"/>
       <c r="Q2" s="7"/>
       <c r="R2" s="18"/>
       <c r="S2" s="4"/>
     </row>
-    <row r="3" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:19" ht="16.5">
       <c r="A3" s="8">
         <v>2</v>
       </c>
@@ -1344,16 +1499,24 @@
       <c r="K3" s="8" t="s">
         <v>50</v>
       </c>
-      <c r="L3" s="18"/>
-      <c r="M3" s="20"/>
-      <c r="N3" s="21"/>
-      <c r="O3" s="20"/>
+      <c r="L3" s="18" t="s">
+        <v>119</v>
+      </c>
+      <c r="M3" s="20" t="s">
+        <v>120</v>
+      </c>
+      <c r="N3" s="21">
+        <v>42479</v>
+      </c>
+      <c r="O3" s="20" t="s">
+        <v>121</v>
+      </c>
       <c r="P3" s="7"/>
       <c r="Q3" s="7"/>
       <c r="R3" s="18"/>
       <c r="S3" s="4"/>
     </row>
-    <row r="4" spans="1:19" ht="33" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:19" ht="33">
       <c r="A4" s="8">
         <v>3</v>
       </c>
@@ -1385,16 +1548,24 @@
       <c r="K4" s="8" t="s">
         <v>48</v>
       </c>
-      <c r="L4" s="18"/>
-      <c r="M4" s="20"/>
-      <c r="N4" s="21"/>
-      <c r="O4" s="20"/>
+      <c r="L4" s="18" t="s">
+        <v>119</v>
+      </c>
+      <c r="M4" s="20" t="s">
+        <v>120</v>
+      </c>
+      <c r="N4" s="21">
+        <v>42479</v>
+      </c>
+      <c r="O4" s="20" t="s">
+        <v>121</v>
+      </c>
       <c r="P4" s="7"/>
       <c r="Q4" s="7"/>
       <c r="R4" s="18"/>
       <c r="S4" s="4"/>
     </row>
-    <row r="5" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:19" ht="16.5">
       <c r="A5" s="8">
         <v>4</v>
       </c>
@@ -1426,16 +1597,24 @@
       <c r="K5" s="8" t="s">
         <v>51</v>
       </c>
-      <c r="L5" s="18"/>
-      <c r="M5" s="20"/>
-      <c r="N5" s="21"/>
-      <c r="O5" s="20"/>
+      <c r="L5" s="18" t="s">
+        <v>119</v>
+      </c>
+      <c r="M5" s="20" t="s">
+        <v>120</v>
+      </c>
+      <c r="N5" s="21">
+        <v>42479</v>
+      </c>
+      <c r="O5" s="20" t="s">
+        <v>121</v>
+      </c>
       <c r="P5" s="7"/>
       <c r="Q5" s="7"/>
       <c r="R5" s="18"/>
       <c r="S5" s="4"/>
     </row>
-    <row r="6" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:19" ht="16.5">
       <c r="A6" s="8">
         <v>5</v>
       </c>
@@ -1467,16 +1646,24 @@
       <c r="K6" s="8" t="s">
         <v>50</v>
       </c>
-      <c r="L6" s="18"/>
-      <c r="M6" s="20"/>
-      <c r="N6" s="21"/>
-      <c r="O6" s="20"/>
+      <c r="L6" s="18" t="s">
+        <v>122</v>
+      </c>
+      <c r="M6" s="20" t="s">
+        <v>120</v>
+      </c>
+      <c r="N6" s="21">
+        <v>42479</v>
+      </c>
+      <c r="O6" s="20" t="s">
+        <v>121</v>
+      </c>
       <c r="P6" s="7"/>
       <c r="Q6" s="7"/>
       <c r="R6" s="18"/>
       <c r="S6" s="4"/>
     </row>
-    <row r="7" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:19" ht="16.5">
       <c r="A7" s="8">
         <v>6</v>
       </c>
@@ -1508,16 +1695,24 @@
       <c r="K7" s="8" t="s">
         <v>48</v>
       </c>
-      <c r="L7" s="18"/>
-      <c r="M7" s="20"/>
-      <c r="N7" s="21"/>
-      <c r="O7" s="20"/>
+      <c r="L7" s="18" t="s">
+        <v>123</v>
+      </c>
+      <c r="M7" s="20" t="s">
+        <v>120</v>
+      </c>
+      <c r="N7" s="21">
+        <v>42479</v>
+      </c>
+      <c r="O7" s="20" t="s">
+        <v>121</v>
+      </c>
       <c r="P7" s="7"/>
       <c r="Q7" s="7"/>
       <c r="R7" s="18"/>
       <c r="S7" s="4"/>
     </row>
-    <row r="8" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:19" ht="16.5">
       <c r="A8" s="8">
         <v>7</v>
       </c>
@@ -1549,16 +1744,24 @@
       <c r="K8" s="8" t="s">
         <v>48</v>
       </c>
-      <c r="L8" s="18"/>
-      <c r="M8" s="20"/>
-      <c r="N8" s="21"/>
-      <c r="O8" s="20"/>
+      <c r="L8" s="18" t="s">
+        <v>119</v>
+      </c>
+      <c r="M8" s="20" t="s">
+        <v>120</v>
+      </c>
+      <c r="N8" s="21">
+        <v>42479</v>
+      </c>
+      <c r="O8" s="20" t="s">
+        <v>121</v>
+      </c>
       <c r="P8" s="7"/>
       <c r="Q8" s="7"/>
       <c r="R8" s="18"/>
       <c r="S8" s="4"/>
     </row>
-    <row r="9" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:19" ht="16.5">
       <c r="A9" s="8">
         <v>8</v>
       </c>
@@ -1590,16 +1793,24 @@
       <c r="K9" s="8" t="s">
         <v>48</v>
       </c>
-      <c r="L9" s="18"/>
-      <c r="M9" s="20"/>
-      <c r="N9" s="21"/>
-      <c r="O9" s="20"/>
+      <c r="L9" s="18" t="s">
+        <v>122</v>
+      </c>
+      <c r="M9" s="20" t="s">
+        <v>120</v>
+      </c>
+      <c r="N9" s="21">
+        <v>42479</v>
+      </c>
+      <c r="O9" s="20" t="s">
+        <v>121</v>
+      </c>
       <c r="P9" s="7"/>
       <c r="Q9" s="7"/>
       <c r="R9" s="18"/>
       <c r="S9" s="4"/>
     </row>
-    <row r="10" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:19" ht="16.5">
       <c r="A10" s="8">
         <v>9</v>
       </c>
@@ -1631,16 +1842,24 @@
       <c r="K10" s="8" t="s">
         <v>48</v>
       </c>
-      <c r="L10" s="18"/>
-      <c r="M10" s="20"/>
-      <c r="N10" s="21"/>
-      <c r="O10" s="20"/>
+      <c r="L10" s="18" t="s">
+        <v>123</v>
+      </c>
+      <c r="M10" s="20" t="s">
+        <v>120</v>
+      </c>
+      <c r="N10" s="21">
+        <v>42479</v>
+      </c>
+      <c r="O10" s="20" t="s">
+        <v>121</v>
+      </c>
       <c r="P10" s="7"/>
       <c r="Q10" s="7"/>
       <c r="R10" s="18"/>
       <c r="S10" s="4"/>
     </row>
-    <row r="11" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:19" ht="16.5">
       <c r="A11" s="8">
         <v>10</v>
       </c>
@@ -1672,16 +1891,24 @@
       <c r="K11" s="8" t="s">
         <v>51</v>
       </c>
-      <c r="L11" s="18"/>
-      <c r="M11" s="20"/>
-      <c r="N11" s="21"/>
-      <c r="O11" s="20"/>
+      <c r="L11" s="18" t="s">
+        <v>123</v>
+      </c>
+      <c r="M11" s="20" t="s">
+        <v>120</v>
+      </c>
+      <c r="N11" s="21">
+        <v>42479</v>
+      </c>
+      <c r="O11" s="20" t="s">
+        <v>121</v>
+      </c>
       <c r="P11" s="7"/>
       <c r="Q11" s="7"/>
       <c r="R11" s="18"/>
       <c r="S11" s="4"/>
     </row>
-    <row r="12" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:19" ht="16.5">
       <c r="A12" s="8">
         <v>11</v>
       </c>
@@ -1713,16 +1940,24 @@
       <c r="K12" s="8" t="s">
         <v>49</v>
       </c>
-      <c r="L12" s="18"/>
-      <c r="M12" s="20"/>
-      <c r="N12" s="21"/>
-      <c r="O12" s="20"/>
+      <c r="L12" s="18" t="s">
+        <v>123</v>
+      </c>
+      <c r="M12" s="20" t="s">
+        <v>120</v>
+      </c>
+      <c r="N12" s="21">
+        <v>42479</v>
+      </c>
+      <c r="O12" s="20" t="s">
+        <v>121</v>
+      </c>
       <c r="P12" s="7"/>
       <c r="Q12" s="7"/>
       <c r="R12" s="18"/>
       <c r="S12" s="4"/>
     </row>
-    <row r="13" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:19" ht="16.5">
       <c r="A13" s="8">
         <v>12</v>
       </c>
@@ -1754,16 +1989,24 @@
       <c r="K13" s="8" t="s">
         <v>48</v>
       </c>
-      <c r="L13" s="18"/>
-      <c r="M13" s="20"/>
-      <c r="N13" s="21"/>
-      <c r="O13" s="20"/>
+      <c r="L13" s="18" t="s">
+        <v>123</v>
+      </c>
+      <c r="M13" s="20" t="s">
+        <v>120</v>
+      </c>
+      <c r="N13" s="21">
+        <v>42479</v>
+      </c>
+      <c r="O13" s="20" t="s">
+        <v>121</v>
+      </c>
       <c r="P13" s="7"/>
       <c r="Q13" s="7"/>
       <c r="R13" s="18"/>
       <c r="S13" s="4"/>
     </row>
-    <row r="14" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:19" ht="16.5">
       <c r="A14" s="8">
         <v>13</v>
       </c>
@@ -1795,16 +2038,24 @@
       <c r="K14" s="8" t="s">
         <v>50</v>
       </c>
-      <c r="L14" s="18"/>
-      <c r="M14" s="20"/>
-      <c r="N14" s="21"/>
-      <c r="O14" s="20"/>
+      <c r="L14" s="18" t="s">
+        <v>123</v>
+      </c>
+      <c r="M14" s="20" t="s">
+        <v>120</v>
+      </c>
+      <c r="N14" s="21">
+        <v>42479</v>
+      </c>
+      <c r="O14" s="20" t="s">
+        <v>121</v>
+      </c>
       <c r="P14" s="7"/>
       <c r="Q14" s="7"/>
       <c r="R14" s="18"/>
       <c r="S14" s="4"/>
     </row>
-    <row r="15" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:19" ht="16.5">
       <c r="A15" s="8">
         <v>14</v>
       </c>
@@ -1836,16 +2087,24 @@
       <c r="K15" s="8" t="s">
         <v>49</v>
       </c>
-      <c r="L15" s="18"/>
-      <c r="M15" s="20"/>
-      <c r="N15" s="21"/>
-      <c r="O15" s="20"/>
+      <c r="L15" s="18" t="s">
+        <v>123</v>
+      </c>
+      <c r="M15" s="20" t="s">
+        <v>120</v>
+      </c>
+      <c r="N15" s="21">
+        <v>42479</v>
+      </c>
+      <c r="O15" s="20" t="s">
+        <v>121</v>
+      </c>
       <c r="P15" s="7"/>
       <c r="Q15" s="7"/>
       <c r="R15" s="18"/>
       <c r="S15" s="4"/>
     </row>
-    <row r="16" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:19" ht="16.5">
       <c r="A16" s="8">
         <v>15</v>
       </c>
@@ -1877,16 +2136,24 @@
       <c r="K16" s="8" t="s">
         <v>48</v>
       </c>
-      <c r="L16" s="18"/>
-      <c r="M16" s="20"/>
-      <c r="N16" s="21"/>
-      <c r="O16" s="20"/>
+      <c r="L16" s="18" t="s">
+        <v>123</v>
+      </c>
+      <c r="M16" s="20" t="s">
+        <v>120</v>
+      </c>
+      <c r="N16" s="21">
+        <v>42479</v>
+      </c>
+      <c r="O16" s="20" t="s">
+        <v>121</v>
+      </c>
       <c r="P16" s="7"/>
       <c r="Q16" s="7"/>
       <c r="R16" s="18"/>
       <c r="S16" s="4"/>
     </row>
-    <row r="17" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:20" ht="16.5">
       <c r="A17" s="8">
         <v>16</v>
       </c>
@@ -1918,16 +2185,20 @@
       <c r="K17" s="8" t="s">
         <v>48</v>
       </c>
-      <c r="L17" s="18"/>
+      <c r="L17" s="18" t="s">
+        <v>119</v>
+      </c>
       <c r="M17" s="20"/>
-      <c r="N17" s="21"/>
+      <c r="N17" s="21">
+        <v>42479</v>
+      </c>
       <c r="O17" s="20"/>
       <c r="P17" s="7"/>
       <c r="Q17" s="7"/>
       <c r="R17" s="18"/>
       <c r="S17" s="4"/>
     </row>
-    <row r="18" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:20" ht="16.5">
       <c r="A18" s="8">
         <v>17</v>
       </c>
@@ -1959,16 +2230,24 @@
       <c r="K18" s="8" t="s">
         <v>49</v>
       </c>
-      <c r="L18" s="18"/>
-      <c r="M18" s="20"/>
-      <c r="N18" s="21"/>
-      <c r="O18" s="20"/>
+      <c r="L18" s="18" t="s">
+        <v>119</v>
+      </c>
+      <c r="M18" s="20" t="s">
+        <v>120</v>
+      </c>
+      <c r="N18" s="21">
+        <v>42479</v>
+      </c>
+      <c r="O18" s="20" t="s">
+        <v>121</v>
+      </c>
       <c r="P18" s="7"/>
       <c r="Q18" s="7"/>
       <c r="R18" s="7"/>
       <c r="S18" s="4"/>
     </row>
-    <row r="19" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:20" ht="16.5">
       <c r="A19" s="8">
         <v>18</v>
       </c>
@@ -2000,16 +2279,24 @@
       <c r="K19" s="8" t="s">
         <v>49</v>
       </c>
-      <c r="L19" s="18"/>
-      <c r="M19" s="20"/>
-      <c r="N19" s="21"/>
-      <c r="O19" s="20"/>
+      <c r="L19" s="18" t="s">
+        <v>122</v>
+      </c>
+      <c r="M19" s="20" t="s">
+        <v>120</v>
+      </c>
+      <c r="N19" s="21">
+        <v>42479</v>
+      </c>
+      <c r="O19" s="20" t="s">
+        <v>121</v>
+      </c>
       <c r="P19" s="7"/>
       <c r="Q19" s="7"/>
       <c r="R19" s="7"/>
       <c r="S19" s="4"/>
     </row>
-    <row r="20" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:20" ht="16.5">
       <c r="A20" s="8">
         <v>19</v>
       </c>
@@ -2041,16 +2328,24 @@
       <c r="K20" s="8" t="s">
         <v>48</v>
       </c>
-      <c r="L20" s="18"/>
-      <c r="M20" s="20"/>
-      <c r="N20" s="21"/>
-      <c r="O20" s="20"/>
+      <c r="L20" s="18" t="s">
+        <v>119</v>
+      </c>
+      <c r="M20" s="20" t="s">
+        <v>120</v>
+      </c>
+      <c r="N20" s="21">
+        <v>42479</v>
+      </c>
+      <c r="O20" s="20" t="s">
+        <v>121</v>
+      </c>
       <c r="P20" s="7"/>
       <c r="Q20" s="7"/>
       <c r="R20" s="7"/>
       <c r="S20" s="4"/>
     </row>
-    <row r="21" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:20" ht="16.5">
       <c r="A21" s="8">
         <v>20</v>
       </c>
@@ -2082,16 +2377,24 @@
       <c r="K21" s="8" t="s">
         <v>48</v>
       </c>
-      <c r="L21" s="18"/>
-      <c r="M21" s="20"/>
-      <c r="N21" s="21"/>
-      <c r="O21" s="20"/>
+      <c r="L21" s="18" t="s">
+        <v>119</v>
+      </c>
+      <c r="M21" s="20" t="s">
+        <v>120</v>
+      </c>
+      <c r="N21" s="21">
+        <v>42479</v>
+      </c>
+      <c r="O21" s="20" t="s">
+        <v>121</v>
+      </c>
       <c r="P21" s="7"/>
       <c r="Q21" s="7"/>
       <c r="R21" s="7"/>
       <c r="S21" s="4"/>
     </row>
-    <row r="22" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:20" ht="16.5">
       <c r="A22" s="8">
         <v>21</v>
       </c>
@@ -2123,16 +2426,24 @@
       <c r="K22" s="8" t="s">
         <v>49</v>
       </c>
-      <c r="L22" s="18"/>
-      <c r="M22" s="20"/>
-      <c r="N22" s="21"/>
-      <c r="O22" s="20"/>
+      <c r="L22" s="18" t="s">
+        <v>123</v>
+      </c>
+      <c r="M22" s="20" t="s">
+        <v>120</v>
+      </c>
+      <c r="N22" s="21">
+        <v>42479</v>
+      </c>
+      <c r="O22" s="20" t="s">
+        <v>121</v>
+      </c>
       <c r="P22" s="17"/>
       <c r="Q22" s="17"/>
       <c r="R22" s="17"/>
       <c r="S22" s="4"/>
     </row>
-    <row r="23" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:20" s="40" customFormat="1" ht="16.5">
       <c r="A23" s="8">
         <v>22</v>
       </c>
@@ -2148,73 +2459,84 @@
       <c r="E23" s="8" t="s">
         <v>32</v>
       </c>
-      <c r="F23" s="19">
+      <c r="F23" s="34">
         <v>42475</v>
       </c>
       <c r="G23" s="8" t="s">
         <v>75</v>
       </c>
-      <c r="H23" s="19">
-        <v>42475</v>
-      </c>
-      <c r="I23" s="6"/>
+      <c r="H23" s="34">
+        <v>42475</v>
+      </c>
+      <c r="I23" s="35"/>
       <c r="J23" s="8" t="s">
         <v>52</v>
       </c>
       <c r="K23" s="8" t="s">
         <v>48</v>
       </c>
-      <c r="L23" s="17"/>
-      <c r="M23" s="20"/>
-      <c r="N23" s="21"/>
-      <c r="O23" s="20"/>
-      <c r="P23" s="7"/>
-      <c r="Q23" s="7"/>
-      <c r="R23" s="7"/>
-      <c r="S23" s="4"/>
-    </row>
-    <row r="24" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A24" s="8">
+      <c r="L23" s="36" t="s">
+        <v>123</v>
+      </c>
+      <c r="M23" s="20" t="s">
+        <v>120</v>
+      </c>
+      <c r="N23" s="21">
+        <v>42479</v>
+      </c>
+      <c r="O23" s="20" t="s">
+        <v>121</v>
+      </c>
+      <c r="P23" s="37"/>
+      <c r="Q23" s="37"/>
+      <c r="R23" s="37"/>
+      <c r="S23" s="38"/>
+      <c r="T23" s="39"/>
+    </row>
+    <row r="24" spans="1:20" ht="16.5">
+      <c r="A24" s="24">
         <v>23</v>
       </c>
-      <c r="B24" s="23" t="s">
+      <c r="B24" s="25" t="s">
         <v>102</v>
       </c>
-      <c r="C24" s="8" t="s">
+      <c r="C24" s="24" t="s">
         <v>77</v>
       </c>
-      <c r="D24" s="8" t="s">
+      <c r="D24" s="24" t="s">
         <v>37</v>
       </c>
-      <c r="E24" s="8" t="s">
+      <c r="E24" s="24" t="s">
         <v>32</v>
       </c>
-      <c r="F24" s="19">
-        <v>42475</v>
-      </c>
-      <c r="G24" s="8" t="s">
+      <c r="F24" s="26">
+        <v>42475</v>
+      </c>
+      <c r="G24" s="24" t="s">
         <v>32</v>
       </c>
-      <c r="H24" s="19">
-        <v>42475</v>
-      </c>
-      <c r="I24" s="6"/>
-      <c r="J24" s="8" t="s">
+      <c r="H24" s="26">
+        <v>42475</v>
+      </c>
+      <c r="I24" s="27"/>
+      <c r="J24" s="24" t="s">
         <v>69</v>
       </c>
-      <c r="K24" s="8" t="s">
+      <c r="K24" s="24" t="s">
         <v>48</v>
       </c>
-      <c r="L24" s="18"/>
-      <c r="M24" s="20"/>
-      <c r="N24" s="21"/>
-      <c r="O24" s="20"/>
-      <c r="P24" s="7"/>
-      <c r="Q24" s="7"/>
-      <c r="R24" s="7"/>
-      <c r="S24" s="4"/>
-    </row>
-    <row r="25" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="L24" s="32"/>
+      <c r="M24" s="29"/>
+      <c r="N24" s="30"/>
+      <c r="O24" s="29"/>
+      <c r="P24" s="28"/>
+      <c r="Q24" s="28"/>
+      <c r="R24" s="28"/>
+      <c r="S24" s="31" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20" s="40" customFormat="1" ht="16.5">
       <c r="A25" s="8">
         <v>24</v>
       </c>
@@ -2230,73 +2552,84 @@
       <c r="E25" s="8" t="s">
         <v>32</v>
       </c>
-      <c r="F25" s="19">
+      <c r="F25" s="34">
         <v>42475</v>
       </c>
       <c r="G25" s="8" t="s">
         <v>75</v>
       </c>
-      <c r="H25" s="19">
-        <v>42475</v>
-      </c>
-      <c r="I25" s="6"/>
+      <c r="H25" s="34">
+        <v>42475</v>
+      </c>
+      <c r="I25" s="35"/>
       <c r="J25" s="8" t="s">
         <v>63</v>
       </c>
       <c r="K25" s="8" t="s">
         <v>48</v>
       </c>
-      <c r="L25" s="7"/>
-      <c r="M25" s="7"/>
-      <c r="N25" s="5"/>
-      <c r="O25" s="4"/>
-      <c r="P25" s="7"/>
-      <c r="Q25" s="7"/>
-      <c r="R25" s="7"/>
-      <c r="S25" s="4"/>
-    </row>
-    <row r="26" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A26" s="8">
+      <c r="L25" s="36" t="s">
+        <v>123</v>
+      </c>
+      <c r="M25" s="20" t="s">
+        <v>120</v>
+      </c>
+      <c r="N25" s="21">
+        <v>42479</v>
+      </c>
+      <c r="O25" s="20" t="s">
+        <v>121</v>
+      </c>
+      <c r="P25" s="37"/>
+      <c r="Q25" s="37"/>
+      <c r="R25" s="37"/>
+      <c r="S25" s="38"/>
+      <c r="T25" s="39"/>
+    </row>
+    <row r="26" spans="1:20" ht="16.5">
+      <c r="A26" s="24">
         <v>25</v>
       </c>
-      <c r="B26" s="23" t="s">
+      <c r="B26" s="25" t="s">
         <v>104</v>
       </c>
-      <c r="C26" s="8" t="s">
+      <c r="C26" s="24" t="s">
         <v>28</v>
       </c>
-      <c r="D26" s="8" t="s">
+      <c r="D26" s="24" t="s">
         <v>37</v>
       </c>
-      <c r="E26" s="8" t="s">
+      <c r="E26" s="24" t="s">
         <v>32</v>
       </c>
-      <c r="F26" s="19">
-        <v>42475</v>
-      </c>
-      <c r="G26" s="8" t="s">
+      <c r="F26" s="26">
+        <v>42475</v>
+      </c>
+      <c r="G26" s="24" t="s">
         <v>75</v>
       </c>
-      <c r="H26" s="19">
-        <v>42475</v>
-      </c>
-      <c r="I26" s="6"/>
-      <c r="J26" s="8" t="s">
+      <c r="H26" s="26">
+        <v>42475</v>
+      </c>
+      <c r="I26" s="27"/>
+      <c r="J26" s="24" t="s">
         <v>70</v>
       </c>
-      <c r="K26" s="8" t="s">
+      <c r="K26" s="24" t="s">
         <v>48</v>
       </c>
-      <c r="L26" s="7"/>
-      <c r="M26" s="7"/>
-      <c r="N26" s="5"/>
-      <c r="O26" s="4"/>
-      <c r="P26" s="7"/>
-      <c r="Q26" s="7"/>
-      <c r="R26" s="7"/>
-      <c r="S26" s="4"/>
-    </row>
-    <row r="27" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="L26" s="28"/>
+      <c r="M26" s="28"/>
+      <c r="N26" s="33"/>
+      <c r="O26" s="31"/>
+      <c r="P26" s="28"/>
+      <c r="Q26" s="28"/>
+      <c r="R26" s="28"/>
+      <c r="S26" s="31" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="27" spans="1:20" ht="16.5">
       <c r="A27" s="8">
         <v>26</v>
       </c>
@@ -2328,16 +2661,24 @@
       <c r="K27" s="8" t="s">
         <v>50</v>
       </c>
-      <c r="L27" s="7"/>
-      <c r="M27" s="7"/>
-      <c r="N27" s="5"/>
-      <c r="O27" s="4"/>
+      <c r="L27" s="17" t="s">
+        <v>119</v>
+      </c>
+      <c r="M27" s="20" t="s">
+        <v>120</v>
+      </c>
+      <c r="N27" s="21">
+        <v>42479</v>
+      </c>
+      <c r="O27" s="20" t="s">
+        <v>121</v>
+      </c>
       <c r="P27" s="7"/>
       <c r="Q27" s="7"/>
       <c r="R27" s="7"/>
       <c r="S27" s="4"/>
     </row>
-    <row r="28" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:20" ht="16.5">
       <c r="A28" s="8">
         <v>27</v>
       </c>
@@ -2369,16 +2710,24 @@
       <c r="K28" s="8" t="s">
         <v>49</v>
       </c>
-      <c r="L28" s="7"/>
-      <c r="M28" s="7"/>
-      <c r="N28" s="5"/>
-      <c r="O28" s="4"/>
+      <c r="L28" s="17" t="s">
+        <v>123</v>
+      </c>
+      <c r="M28" s="20" t="s">
+        <v>120</v>
+      </c>
+      <c r="N28" s="21">
+        <v>42479</v>
+      </c>
+      <c r="O28" s="20" t="s">
+        <v>121</v>
+      </c>
       <c r="P28" s="7"/>
       <c r="Q28" s="7"/>
       <c r="R28" s="7"/>
       <c r="S28" s="4"/>
     </row>
-    <row r="29" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:20" ht="16.5">
       <c r="A29" s="8">
         <v>28</v>
       </c>
@@ -2410,16 +2759,24 @@
       <c r="K29" s="8" t="s">
         <v>48</v>
       </c>
-      <c r="L29" s="7"/>
-      <c r="M29" s="7"/>
-      <c r="N29" s="5"/>
-      <c r="O29" s="4"/>
+      <c r="L29" s="17" t="s">
+        <v>119</v>
+      </c>
+      <c r="M29" s="20" t="s">
+        <v>120</v>
+      </c>
+      <c r="N29" s="21">
+        <v>42479</v>
+      </c>
+      <c r="O29" s="20" t="s">
+        <v>121</v>
+      </c>
       <c r="P29" s="7"/>
       <c r="Q29" s="7"/>
       <c r="R29" s="7"/>
       <c r="S29" s="4"/>
     </row>
-    <row r="30" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:20" ht="16.5">
       <c r="A30" s="8">
         <v>29</v>
       </c>
@@ -2451,16 +2808,24 @@
       <c r="K30" s="8" t="s">
         <v>48</v>
       </c>
-      <c r="L30" s="7"/>
-      <c r="M30" s="7"/>
-      <c r="N30" s="5"/>
-      <c r="O30" s="4"/>
+      <c r="L30" s="17" t="s">
+        <v>123</v>
+      </c>
+      <c r="M30" s="20" t="s">
+        <v>120</v>
+      </c>
+      <c r="N30" s="21">
+        <v>42479</v>
+      </c>
+      <c r="O30" s="20" t="s">
+        <v>121</v>
+      </c>
       <c r="P30" s="7"/>
       <c r="Q30" s="7"/>
       <c r="R30" s="7"/>
       <c r="S30" s="4"/>
     </row>
-    <row r="31" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="31" spans="1:20" ht="16.5">
       <c r="A31" s="8">
         <v>30</v>
       </c>
@@ -2492,16 +2857,24 @@
       <c r="K31" s="8" t="s">
         <v>48</v>
       </c>
-      <c r="L31" s="7"/>
-      <c r="M31" s="7"/>
-      <c r="N31" s="5"/>
-      <c r="O31" s="4"/>
+      <c r="L31" s="17" t="s">
+        <v>123</v>
+      </c>
+      <c r="M31" s="20" t="s">
+        <v>120</v>
+      </c>
+      <c r="N31" s="21">
+        <v>42479</v>
+      </c>
+      <c r="O31" s="20" t="s">
+        <v>121</v>
+      </c>
       <c r="P31" s="7"/>
       <c r="Q31" s="7"/>
       <c r="R31" s="7"/>
       <c r="S31" s="4"/>
     </row>
-    <row r="32" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="32" spans="1:20" ht="16.5">
       <c r="A32" s="8">
         <v>31</v>
       </c>
@@ -2533,16 +2906,24 @@
       <c r="K32" s="8" t="s">
         <v>48</v>
       </c>
-      <c r="L32" s="7"/>
-      <c r="M32" s="7"/>
-      <c r="N32" s="5"/>
-      <c r="O32" s="4"/>
+      <c r="L32" s="17" t="s">
+        <v>119</v>
+      </c>
+      <c r="M32" s="20" t="s">
+        <v>120</v>
+      </c>
+      <c r="N32" s="21">
+        <v>42479</v>
+      </c>
+      <c r="O32" s="20" t="s">
+        <v>121</v>
+      </c>
       <c r="P32" s="7"/>
       <c r="Q32" s="7"/>
       <c r="R32" s="7"/>
       <c r="S32" s="4"/>
     </row>
-    <row r="33" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="33" spans="1:19" ht="16.5">
       <c r="A33" s="8">
         <v>32</v>
       </c>
@@ -2574,16 +2955,24 @@
       <c r="K33" s="8" t="s">
         <v>48</v>
       </c>
-      <c r="L33" s="7"/>
-      <c r="M33" s="7"/>
-      <c r="N33" s="5"/>
-      <c r="O33" s="4"/>
+      <c r="L33" s="17" t="s">
+        <v>122</v>
+      </c>
+      <c r="M33" s="20" t="s">
+        <v>120</v>
+      </c>
+      <c r="N33" s="21">
+        <v>42479</v>
+      </c>
+      <c r="O33" s="20" t="s">
+        <v>121</v>
+      </c>
       <c r="P33" s="7"/>
       <c r="Q33" s="7"/>
       <c r="R33" s="7"/>
       <c r="S33" s="4"/>
     </row>
-    <row r="34" spans="1:19" ht="33" x14ac:dyDescent="0.15">
+    <row r="34" spans="1:19" ht="33">
       <c r="A34" s="8">
         <v>33</v>
       </c>
@@ -2615,16 +3004,24 @@
       <c r="K34" s="8" t="s">
         <v>48</v>
       </c>
-      <c r="L34" s="7"/>
-      <c r="M34" s="7"/>
-      <c r="N34" s="5"/>
-      <c r="O34" s="4"/>
+      <c r="L34" s="17" t="s">
+        <v>119</v>
+      </c>
+      <c r="M34" s="20" t="s">
+        <v>120</v>
+      </c>
+      <c r="N34" s="21">
+        <v>42479</v>
+      </c>
+      <c r="O34" s="20" t="s">
+        <v>121</v>
+      </c>
       <c r="P34" s="7"/>
       <c r="Q34" s="7"/>
       <c r="R34" s="7"/>
       <c r="S34" s="4"/>
     </row>
-    <row r="35" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="35" spans="1:19" ht="16.5">
       <c r="A35" s="8">
         <v>34</v>
       </c>
@@ -2656,16 +3053,24 @@
       <c r="K35" s="8" t="s">
         <v>49</v>
       </c>
-      <c r="L35" s="7"/>
-      <c r="M35" s="7"/>
-      <c r="N35" s="5"/>
-      <c r="O35" s="4"/>
+      <c r="L35" s="17" t="s">
+        <v>119</v>
+      </c>
+      <c r="M35" s="20" t="s">
+        <v>120</v>
+      </c>
+      <c r="N35" s="21">
+        <v>42479</v>
+      </c>
+      <c r="O35" s="20" t="s">
+        <v>121</v>
+      </c>
       <c r="P35" s="7"/>
       <c r="Q35" s="7"/>
       <c r="R35" s="7"/>
       <c r="S35" s="4"/>
     </row>
-    <row r="36" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="36" spans="1:19" ht="16.5">
       <c r="A36" s="8">
         <v>35</v>
       </c>
@@ -2697,16 +3102,24 @@
       <c r="K36" s="8" t="s">
         <v>48</v>
       </c>
-      <c r="L36" s="7"/>
-      <c r="M36" s="7"/>
-      <c r="N36" s="5"/>
-      <c r="O36" s="4"/>
+      <c r="L36" s="17" t="s">
+        <v>123</v>
+      </c>
+      <c r="M36" s="20" t="s">
+        <v>120</v>
+      </c>
+      <c r="N36" s="21">
+        <v>42479</v>
+      </c>
+      <c r="O36" s="20" t="s">
+        <v>121</v>
+      </c>
       <c r="P36" s="7"/>
       <c r="Q36" s="7"/>
       <c r="R36" s="7"/>
       <c r="S36" s="4"/>
     </row>
-    <row r="37" spans="1:19" ht="33" x14ac:dyDescent="0.15">
+    <row r="37" spans="1:19" ht="33">
       <c r="A37" s="8">
         <v>36</v>
       </c>
@@ -2738,16 +3151,24 @@
       <c r="K37" s="8" t="s">
         <v>48</v>
       </c>
-      <c r="L37" s="7"/>
-      <c r="M37" s="7"/>
-      <c r="N37" s="5"/>
-      <c r="O37" s="4"/>
+      <c r="L37" s="17" t="s">
+        <v>119</v>
+      </c>
+      <c r="M37" s="20" t="s">
+        <v>120</v>
+      </c>
+      <c r="N37" s="21">
+        <v>42479</v>
+      </c>
+      <c r="O37" s="20" t="s">
+        <v>121</v>
+      </c>
       <c r="P37" s="7"/>
       <c r="Q37" s="7"/>
       <c r="R37" s="7"/>
       <c r="S37" s="4"/>
     </row>
-    <row r="38" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="38" spans="1:19" ht="16.5">
       <c r="A38" s="8">
         <v>37</v>
       </c>
@@ -2779,16 +3200,24 @@
       <c r="K38" s="8" t="s">
         <v>48</v>
       </c>
-      <c r="L38" s="7"/>
-      <c r="M38" s="7"/>
-      <c r="N38" s="5"/>
-      <c r="O38" s="4"/>
+      <c r="L38" s="17" t="s">
+        <v>119</v>
+      </c>
+      <c r="M38" s="20" t="s">
+        <v>120</v>
+      </c>
+      <c r="N38" s="21">
+        <v>42479</v>
+      </c>
+      <c r="O38" s="20" t="s">
+        <v>121</v>
+      </c>
       <c r="P38" s="7"/>
       <c r="Q38" s="7"/>
       <c r="R38" s="7"/>
       <c r="S38" s="4"/>
     </row>
-    <row r="39" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="39" spans="1:19" ht="16.5">
       <c r="A39" s="8">
         <v>38</v>
       </c>
@@ -2820,16 +3249,18 @@
       <c r="K39" s="8" t="s">
         <v>48</v>
       </c>
-      <c r="L39" s="7"/>
-      <c r="M39" s="7"/>
-      <c r="N39" s="5"/>
-      <c r="O39" s="4"/>
+      <c r="L39" s="17"/>
+      <c r="M39" s="20"/>
+      <c r="N39" s="21">
+        <v>42479</v>
+      </c>
+      <c r="O39" s="20"/>
       <c r="P39" s="7"/>
       <c r="Q39" s="7"/>
       <c r="R39" s="7"/>
       <c r="S39" s="4"/>
     </row>
-    <row r="40" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="40" spans="1:19" ht="16.5">
       <c r="A40" s="8">
         <v>39</v>
       </c>
@@ -2861,16 +3292,24 @@
       <c r="K40" s="8" t="s">
         <v>48</v>
       </c>
-      <c r="L40" s="7"/>
-      <c r="M40" s="7"/>
-      <c r="N40" s="5"/>
-      <c r="O40" s="4"/>
+      <c r="L40" s="17" t="s">
+        <v>122</v>
+      </c>
+      <c r="M40" s="20" t="s">
+        <v>120</v>
+      </c>
+      <c r="N40" s="21">
+        <v>42479</v>
+      </c>
+      <c r="O40" s="20" t="s">
+        <v>121</v>
+      </c>
       <c r="P40" s="7"/>
       <c r="Q40" s="7"/>
       <c r="R40" s="7"/>
       <c r="S40" s="4"/>
     </row>
-    <row r="41" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="41" spans="1:19">
       <c r="A41" s="7"/>
       <c r="B41" s="4"/>
       <c r="C41" s="7"/>
@@ -2891,7 +3330,7 @@
       <c r="R41" s="7"/>
       <c r="S41" s="4"/>
     </row>
-    <row r="42" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="42" spans="1:19">
       <c r="A42" s="7"/>
       <c r="B42" s="4"/>
       <c r="C42" s="7"/>
@@ -2912,7 +3351,7 @@
       <c r="R42" s="7"/>
       <c r="S42" s="4"/>
     </row>
-    <row r="43" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="43" spans="1:19">
       <c r="A43" s="7"/>
       <c r="B43" s="4"/>
       <c r="C43" s="7"/>
@@ -2933,7 +3372,7 @@
       <c r="R43" s="7"/>
       <c r="S43" s="4"/>
     </row>
-    <row r="44" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="44" spans="1:19">
       <c r="A44" s="7"/>
       <c r="B44" s="4"/>
       <c r="C44" s="7"/>
@@ -2954,7 +3393,7 @@
       <c r="R44" s="7"/>
       <c r="S44" s="4"/>
     </row>
-    <row r="45" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="45" spans="1:19">
       <c r="A45" s="7"/>
       <c r="B45" s="4"/>
       <c r="C45" s="7"/>
@@ -2975,7 +3414,7 @@
       <c r="R45" s="7"/>
       <c r="S45" s="4"/>
     </row>
-    <row r="46" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="46" spans="1:19">
       <c r="A46" s="7"/>
       <c r="B46" s="4"/>
       <c r="C46" s="7"/>
@@ -2996,7 +3435,7 @@
       <c r="R46" s="7"/>
       <c r="S46" s="4"/>
     </row>
-    <row r="47" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="47" spans="1:19">
       <c r="A47" s="7"/>
       <c r="B47" s="4"/>
       <c r="C47" s="7"/>
@@ -3017,7 +3456,7 @@
       <c r="R47" s="7"/>
       <c r="S47" s="4"/>
     </row>
-    <row r="48" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="48" spans="1:19">
       <c r="A48" s="7"/>
       <c r="B48" s="4"/>
       <c r="C48" s="7"/>
@@ -3038,7 +3477,7 @@
       <c r="R48" s="7"/>
       <c r="S48" s="4"/>
     </row>
-    <row r="49" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="49" spans="1:19">
       <c r="A49" s="7"/>
       <c r="B49" s="4"/>
       <c r="C49" s="7"/>
@@ -3059,7 +3498,7 @@
       <c r="R49" s="7"/>
       <c r="S49" s="4"/>
     </row>
-    <row r="50" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="50" spans="1:19">
       <c r="A50" s="7"/>
       <c r="B50" s="4"/>
       <c r="C50" s="7"/>
@@ -3080,7 +3519,7 @@
       <c r="R50" s="7"/>
       <c r="S50" s="4"/>
     </row>
-    <row r="51" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="51" spans="1:19">
       <c r="A51" s="7"/>
       <c r="B51" s="4"/>
       <c r="C51" s="7"/>
@@ -3101,7 +3540,7 @@
       <c r="R51" s="7"/>
       <c r="S51" s="4"/>
     </row>
-    <row r="52" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="52" spans="1:19">
       <c r="A52" s="7"/>
       <c r="B52" s="4"/>
       <c r="C52" s="7"/>
@@ -3122,7 +3561,7 @@
       <c r="R52" s="7"/>
       <c r="S52" s="4"/>
     </row>
-    <row r="53" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="53" spans="1:19">
       <c r="A53" s="7"/>
       <c r="B53" s="4"/>
       <c r="C53" s="7"/>
@@ -3143,7 +3582,7 @@
       <c r="R53" s="7"/>
       <c r="S53" s="4"/>
     </row>
-    <row r="54" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="54" spans="1:19">
       <c r="A54" s="7"/>
       <c r="B54" s="4"/>
       <c r="C54" s="7"/>
@@ -3164,7 +3603,7 @@
       <c r="R54" s="7"/>
       <c r="S54" s="4"/>
     </row>
-    <row r="55" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="55" spans="1:19">
       <c r="A55" s="7"/>
       <c r="B55" s="4"/>
       <c r="C55" s="7"/>
@@ -3185,7 +3624,7 @@
       <c r="R55" s="7"/>
       <c r="S55" s="4"/>
     </row>
-    <row r="56" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="56" spans="1:19">
       <c r="A56" s="7"/>
       <c r="B56" s="4"/>
       <c r="C56" s="7"/>
@@ -3206,7 +3645,7 @@
       <c r="R56" s="7"/>
       <c r="S56" s="4"/>
     </row>
-    <row r="57" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="57" spans="1:19">
       <c r="A57" s="7"/>
       <c r="B57" s="4"/>
       <c r="C57" s="7"/>
@@ -3227,7 +3666,7 @@
       <c r="R57" s="7"/>
       <c r="S57" s="4"/>
     </row>
-    <row r="58" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="58" spans="1:19">
       <c r="A58" s="7"/>
       <c r="B58" s="4"/>
       <c r="C58" s="7"/>
@@ -3248,7 +3687,7 @@
       <c r="R58" s="7"/>
       <c r="S58" s="4"/>
     </row>
-    <row r="59" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="59" spans="1:19">
       <c r="A59" s="7"/>
       <c r="B59" s="4"/>
       <c r="C59" s="7"/>
@@ -3269,7 +3708,7 @@
       <c r="R59" s="7"/>
       <c r="S59" s="4"/>
     </row>
-    <row r="60" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="60" spans="1:19">
       <c r="A60" s="7"/>
       <c r="B60" s="4"/>
       <c r="C60" s="7"/>
@@ -3290,7 +3729,7 @@
       <c r="R60" s="7"/>
       <c r="S60" s="4"/>
     </row>
-    <row r="61" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="61" spans="1:19">
       <c r="A61" s="7"/>
       <c r="B61" s="4"/>
       <c r="C61" s="7"/>
@@ -3311,7 +3750,7 @@
       <c r="R61" s="7"/>
       <c r="S61" s="4"/>
     </row>
-    <row r="62" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="62" spans="1:19">
       <c r="A62" s="7"/>
       <c r="B62" s="4"/>
       <c r="C62" s="7"/>
@@ -3332,7 +3771,7 @@
       <c r="R62" s="7"/>
       <c r="S62" s="4"/>
     </row>
-    <row r="63" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="63" spans="1:19">
       <c r="A63" s="7"/>
       <c r="B63" s="4"/>
       <c r="C63" s="7"/>
@@ -3353,7 +3792,7 @@
       <c r="R63" s="7"/>
       <c r="S63" s="4"/>
     </row>
-    <row r="64" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="64" spans="1:19">
       <c r="A64" s="7"/>
       <c r="B64" s="4"/>
       <c r="C64" s="7"/>
@@ -3371,7 +3810,7 @@
       <c r="O64" s="4"/>
       <c r="S64" s="4"/>
     </row>
-    <row r="65" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="65" spans="1:19">
       <c r="A65" s="7"/>
       <c r="B65" s="4"/>
       <c r="C65" s="7"/>
@@ -3389,7 +3828,7 @@
       <c r="O65" s="4"/>
       <c r="S65" s="4"/>
     </row>
-    <row r="66" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="66" spans="1:19">
       <c r="A66" s="7"/>
       <c r="B66" s="4"/>
       <c r="C66" s="7"/>
@@ -3407,7 +3846,7 @@
       <c r="O66" s="4"/>
       <c r="S66" s="4"/>
     </row>
-    <row r="67" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="67" spans="1:19">
       <c r="A67" s="7"/>
       <c r="B67" s="4"/>
       <c r="C67" s="7"/>
@@ -3425,7 +3864,7 @@
       <c r="O67" s="4"/>
       <c r="S67" s="4"/>
     </row>
-    <row r="68" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="68" spans="1:19">
       <c r="A68" s="7"/>
       <c r="B68" s="4"/>
       <c r="C68" s="7"/>
@@ -3443,7 +3882,7 @@
       <c r="O68" s="4"/>
       <c r="S68" s="4"/>
     </row>
-    <row r="69" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="69" spans="1:19">
       <c r="A69" s="7"/>
       <c r="B69" s="4"/>
       <c r="C69" s="7"/>
@@ -3461,7 +3900,7 @@
       <c r="O69" s="4"/>
       <c r="S69" s="4"/>
     </row>
-    <row r="70" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="70" spans="1:19">
       <c r="A70" s="7"/>
       <c r="B70" s="4"/>
       <c r="C70" s="7"/>
@@ -3479,7 +3918,7 @@
       <c r="O70" s="4"/>
       <c r="S70" s="4"/>
     </row>
-    <row r="71" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="71" spans="1:19">
       <c r="A71" s="7"/>
       <c r="B71" s="4"/>
       <c r="C71" s="7"/>
@@ -3497,7 +3936,7 @@
       <c r="O71" s="4"/>
       <c r="S71" s="4"/>
     </row>
-    <row r="72" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="72" spans="1:19">
       <c r="A72" s="7"/>
       <c r="B72" s="4"/>
       <c r="C72" s="7"/>
@@ -3515,7 +3954,7 @@
       <c r="O72" s="4"/>
       <c r="S72" s="4"/>
     </row>
-    <row r="73" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="73" spans="1:19">
       <c r="A73" s="7"/>
       <c r="B73" s="4"/>
       <c r="C73" s="7"/>
@@ -3533,7 +3972,7 @@
       <c r="O73" s="4"/>
       <c r="S73" s="4"/>
     </row>
-    <row r="74" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="74" spans="1:19">
       <c r="A74" s="7"/>
       <c r="B74" s="4"/>
       <c r="C74" s="7"/>
@@ -3551,7 +3990,7 @@
       <c r="O74" s="4"/>
       <c r="S74" s="4"/>
     </row>
-    <row r="75" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="75" spans="1:19">
       <c r="A75" s="7"/>
       <c r="B75" s="4"/>
       <c r="C75" s="7"/>
@@ -3569,7 +4008,7 @@
       <c r="O75" s="4"/>
       <c r="S75" s="4"/>
     </row>
-    <row r="76" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="76" spans="1:19">
       <c r="A76" s="7"/>
       <c r="B76" s="4"/>
       <c r="C76" s="7"/>
@@ -3587,7 +4026,7 @@
       <c r="O76" s="4"/>
       <c r="S76" s="4"/>
     </row>
-    <row r="77" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="77" spans="1:19">
       <c r="A77" s="7"/>
       <c r="B77" s="4"/>
       <c r="C77" s="7"/>
@@ -3605,7 +4044,7 @@
       <c r="O77" s="4"/>
       <c r="S77" s="4"/>
     </row>
-    <row r="78" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="78" spans="1:19">
       <c r="A78" s="7"/>
       <c r="B78" s="4"/>
       <c r="C78" s="7"/>
@@ -3623,7 +4062,7 @@
       <c r="O78" s="4"/>
       <c r="S78" s="4"/>
     </row>
-    <row r="79" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="79" spans="1:19">
       <c r="A79" s="7"/>
       <c r="B79" s="4"/>
       <c r="C79" s="7"/>
@@ -3641,7 +4080,7 @@
       <c r="O79" s="4"/>
       <c r="S79" s="4"/>
     </row>
-    <row r="80" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="80" spans="1:19">
       <c r="A80" s="7"/>
       <c r="B80" s="4"/>
       <c r="C80" s="7"/>
@@ -3659,7 +4098,7 @@
       <c r="O80" s="4"/>
       <c r="S80" s="4"/>
     </row>
-    <row r="81" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="81" spans="1:19">
       <c r="A81" s="7"/>
       <c r="B81" s="4"/>
       <c r="C81" s="7"/>
@@ -3677,7 +4116,7 @@
       <c r="O81" s="4"/>
       <c r="S81" s="4"/>
     </row>
-    <row r="82" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="82" spans="1:19">
       <c r="A82" s="7"/>
       <c r="B82" s="4"/>
       <c r="C82" s="7"/>
@@ -3695,7 +4134,7 @@
       <c r="O82" s="4"/>
       <c r="S82" s="4"/>
     </row>
-    <row r="83" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="83" spans="1:19">
       <c r="A83" s="7"/>
       <c r="B83" s="4"/>
       <c r="C83" s="7"/>
@@ -3713,7 +4152,7 @@
       <c r="O83" s="4"/>
       <c r="S83" s="4"/>
     </row>
-    <row r="84" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="84" spans="1:19">
       <c r="A84" s="7"/>
       <c r="B84" s="4"/>
       <c r="C84" s="7"/>
@@ -3731,7 +4170,7 @@
       <c r="O84" s="4"/>
       <c r="S84" s="4"/>
     </row>
-    <row r="85" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="85" spans="1:19">
       <c r="A85" s="7"/>
       <c r="B85" s="4"/>
       <c r="C85" s="7"/>
@@ -3749,7 +4188,7 @@
       <c r="O85" s="4"/>
       <c r="S85" s="4"/>
     </row>
-    <row r="86" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="86" spans="1:19">
       <c r="A86" s="7"/>
       <c r="B86" s="4"/>
       <c r="C86" s="7"/>
@@ -3767,7 +4206,7 @@
       <c r="O86" s="4"/>
       <c r="S86" s="4"/>
     </row>
-    <row r="87" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="87" spans="1:19">
       <c r="A87" s="7"/>
       <c r="B87" s="4"/>
       <c r="C87" s="7"/>
@@ -3785,7 +4224,7 @@
       <c r="O87" s="4"/>
       <c r="S87" s="4"/>
     </row>
-    <row r="88" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="88" spans="1:19">
       <c r="A88" s="7"/>
       <c r="B88" s="4"/>
       <c r="C88" s="7"/>
@@ -3803,7 +4242,7 @@
       <c r="O88" s="4"/>
       <c r="S88" s="4"/>
     </row>
-    <row r="89" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="89" spans="1:19">
       <c r="A89" s="7"/>
       <c r="B89" s="4"/>
       <c r="C89" s="7"/>
@@ -3821,7 +4260,7 @@
       <c r="O89" s="4"/>
       <c r="S89" s="4"/>
     </row>
-    <row r="90" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="90" spans="1:19">
       <c r="A90" s="7"/>
       <c r="B90" s="4"/>
       <c r="C90" s="7"/>
@@ -3839,7 +4278,7 @@
       <c r="O90" s="4"/>
       <c r="S90" s="4"/>
     </row>
-    <row r="91" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="91" spans="1:19">
       <c r="A91" s="7"/>
       <c r="B91" s="4"/>
       <c r="C91" s="7"/>
@@ -3857,7 +4296,7 @@
       <c r="O91" s="4"/>
       <c r="S91" s="4"/>
     </row>
-    <row r="92" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="92" spans="1:19">
       <c r="A92" s="7"/>
       <c r="B92" s="4"/>
       <c r="C92" s="7"/>
@@ -3875,7 +4314,7 @@
       <c r="O92" s="4"/>
       <c r="S92" s="4"/>
     </row>
-    <row r="93" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="93" spans="1:19">
       <c r="A93" s="7"/>
       <c r="B93" s="4"/>
       <c r="C93" s="7"/>
@@ -3893,7 +4332,7 @@
       <c r="O93" s="4"/>
       <c r="S93" s="4"/>
     </row>
-    <row r="94" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="94" spans="1:19">
       <c r="A94" s="7"/>
       <c r="B94" s="4"/>
       <c r="C94" s="7"/>
@@ -3911,7 +4350,7 @@
       <c r="O94" s="4"/>
       <c r="S94" s="4"/>
     </row>
-    <row r="95" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="95" spans="1:19">
       <c r="A95" s="7"/>
       <c r="B95" s="4"/>
       <c r="C95" s="7"/>
@@ -3929,7 +4368,7 @@
       <c r="O95" s="4"/>
       <c r="S95" s="4"/>
     </row>
-    <row r="96" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="96" spans="1:19">
       <c r="A96" s="7"/>
       <c r="B96" s="4"/>
       <c r="C96" s="7"/>
@@ -3947,7 +4386,7 @@
       <c r="O96" s="4"/>
       <c r="S96" s="4"/>
     </row>
-    <row r="97" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="97" spans="1:19">
       <c r="A97" s="7"/>
       <c r="B97" s="4"/>
       <c r="C97" s="7"/>
@@ -3965,7 +4404,7 @@
       <c r="O97" s="4"/>
       <c r="S97" s="4"/>
     </row>
-    <row r="98" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="98" spans="1:19">
       <c r="A98" s="7"/>
       <c r="B98" s="4"/>
       <c r="C98" s="7"/>
@@ -3984,6 +4423,9 @@
       <c r="S98" s="4"/>
     </row>
   </sheetData>
+  <autoFilter ref="A1:S40">
+    <filterColumn colId="11"/>
+  </autoFilter>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="300" r:id="rId1"/>
@@ -3991,14 +4433,14 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:H19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A2" sqref="A2:XFD2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="17" customWidth="1"/>
     <col min="2" max="2" width="43.25" customWidth="1"/>
@@ -4009,7 +4451,7 @@
     <col min="8" max="8" width="15.25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:8">
       <c r="A1" s="12" t="s">
         <v>18</v>
       </c>
@@ -4035,7 +4477,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="2" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:8" s="2" customFormat="1">
       <c r="A2" s="16"/>
       <c r="B2" s="14"/>
       <c r="C2" s="14"/>
@@ -4045,7 +4487,7 @@
       <c r="G2" s="14"/>
       <c r="H2" s="16"/>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:8">
       <c r="A3" s="13"/>
       <c r="B3" s="13"/>
       <c r="C3" s="13"/>
@@ -4055,7 +4497,7 @@
       <c r="G3" s="13"/>
       <c r="H3" s="13"/>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:8">
       <c r="A4" s="13"/>
       <c r="B4" s="13"/>
       <c r="C4" s="13"/>
@@ -4065,7 +4507,7 @@
       <c r="G4" s="13"/>
       <c r="H4" s="13"/>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:8">
       <c r="A5" s="13"/>
       <c r="B5" s="13"/>
       <c r="C5" s="13"/>
@@ -4075,7 +4517,7 @@
       <c r="G5" s="13"/>
       <c r="H5" s="13"/>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:8">
       <c r="A6" s="13"/>
       <c r="B6" s="13"/>
       <c r="C6" s="13"/>
@@ -4085,7 +4527,7 @@
       <c r="G6" s="13"/>
       <c r="H6" s="13"/>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:8">
       <c r="A7" s="13"/>
       <c r="B7" s="13"/>
       <c r="C7" s="13"/>
@@ -4095,7 +4537,7 @@
       <c r="G7" s="13"/>
       <c r="H7" s="13"/>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:8">
       <c r="A8" s="13"/>
       <c r="B8" s="13"/>
       <c r="C8" s="13"/>
@@ -4105,7 +4547,7 @@
       <c r="G8" s="13"/>
       <c r="H8" s="13"/>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:8">
       <c r="A9" s="13"/>
       <c r="B9" s="13"/>
       <c r="C9" s="13"/>
@@ -4115,7 +4557,7 @@
       <c r="G9" s="13"/>
       <c r="H9" s="13"/>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:8">
       <c r="A10" s="13"/>
       <c r="B10" s="13"/>
       <c r="C10" s="13"/>
@@ -4125,7 +4567,7 @@
       <c r="G10" s="13"/>
       <c r="H10" s="13"/>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:8">
       <c r="A11" s="13"/>
       <c r="B11" s="13"/>
       <c r="C11" s="13"/>
@@ -4135,7 +4577,7 @@
       <c r="G11" s="13"/>
       <c r="H11" s="13"/>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:8">
       <c r="A12" s="13"/>
       <c r="B12" s="13"/>
       <c r="C12" s="13"/>
@@ -4145,7 +4587,7 @@
       <c r="G12" s="13"/>
       <c r="H12" s="13"/>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:8">
       <c r="A13" s="13"/>
       <c r="B13" s="13"/>
       <c r="C13" s="13"/>
@@ -4155,7 +4597,7 @@
       <c r="G13" s="13"/>
       <c r="H13" s="13"/>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:8">
       <c r="A14" s="13"/>
       <c r="B14" s="13"/>
       <c r="C14" s="13"/>
@@ -4165,7 +4607,7 @@
       <c r="G14" s="13"/>
       <c r="H14" s="13"/>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:8">
       <c r="A15" s="13"/>
       <c r="B15" s="13"/>
       <c r="C15" s="13"/>
@@ -4175,7 +4617,7 @@
       <c r="G15" s="13"/>
       <c r="H15" s="13"/>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:8">
       <c r="A16" s="13"/>
       <c r="B16" s="13"/>
       <c r="C16" s="13"/>
@@ -4185,7 +4627,7 @@
       <c r="G16" s="13"/>
       <c r="H16" s="13"/>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:8">
       <c r="A17" s="13"/>
       <c r="B17" s="13"/>
       <c r="C17" s="13"/>
@@ -4195,7 +4637,7 @@
       <c r="G17" s="13"/>
       <c r="H17" s="13"/>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:8">
       <c r="A18" s="13"/>
       <c r="B18" s="13"/>
       <c r="C18" s="13"/>
@@ -4205,7 +4647,7 @@
       <c r="G18" s="13"/>
       <c r="H18" s="13"/>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:8">
       <c r="A19" s="13"/>
       <c r="B19" s="13"/>
       <c r="C19" s="13"/>

--- a/VersionRecords/Version3.1.1/版本Bug和特性计划及评审表v3.1.1_EQ组.xlsx
+++ b/VersionRecords/Version3.1.1/版本Bug和特性计划及评审表v3.1.1_EQ组.xlsx
@@ -1,8 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="5" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\GitDoc\Mogo_Doc\VersionRecords\Version3.1.1\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20640" windowHeight="11760"/>
   </bookViews>
@@ -18,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="408" uniqueCount="125">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="410" uniqueCount="126">
   <si>
     <t>No</t>
   </si>
@@ -501,15 +506,19 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>原生APP仍在测试阶段，后端无版本可测</t>
+    <t>原生APP仍在测试阶段，后端独立上线，不影响</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>原生APP仍在测试阶段，后端独立上线，不影响</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="18">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
@@ -633,7 +642,7 @@
       <charset val="134"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -655,12 +664,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -771,7 +774,7 @@
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="41">
+  <cellXfs count="32">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -844,36 +847,6 @@
     <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="2" fillId="5" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="4" fillId="5" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="5" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="14" fontId="2" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -893,6 +866,9 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -917,74 +893,6 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -1004,7 +912,7 @@
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="C7EDCC"/>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="1F497D"/>
@@ -1324,17 +1232,17 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:T98"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="L32" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="L5" sqref="L5"/>
+      <selection pane="bottomRight" activeCell="S26" sqref="S26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="5.875" style="9" customWidth="1"/>
     <col min="2" max="2" width="91.375" style="10" customWidth="1"/>
@@ -1359,7 +1267,7 @@
     <col min="21" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" s="1" customFormat="1" ht="41.25" thickBot="1">
+    <row r="1" spans="1:19" s="1" customFormat="1" ht="41.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -1418,7 +1326,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:19" ht="21.75" customHeight="1">
+    <row r="2" spans="1:19" ht="21.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="8">
         <v>1</v>
       </c>
@@ -1467,7 +1375,7 @@
       <c r="R2" s="18"/>
       <c r="S2" s="4"/>
     </row>
-    <row r="3" spans="1:19" ht="16.5">
+    <row r="3" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A3" s="8">
         <v>2</v>
       </c>
@@ -1516,7 +1424,7 @@
       <c r="R3" s="18"/>
       <c r="S3" s="4"/>
     </row>
-    <row r="4" spans="1:19" ht="33">
+    <row r="4" spans="1:19" ht="33" x14ac:dyDescent="0.15">
       <c r="A4" s="8">
         <v>3</v>
       </c>
@@ -1565,7 +1473,7 @@
       <c r="R4" s="18"/>
       <c r="S4" s="4"/>
     </row>
-    <row r="5" spans="1:19" ht="16.5">
+    <row r="5" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A5" s="8">
         <v>4</v>
       </c>
@@ -1614,7 +1522,7 @@
       <c r="R5" s="18"/>
       <c r="S5" s="4"/>
     </row>
-    <row r="6" spans="1:19" ht="16.5">
+    <row r="6" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A6" s="8">
         <v>5</v>
       </c>
@@ -1663,7 +1571,7 @@
       <c r="R6" s="18"/>
       <c r="S6" s="4"/>
     </row>
-    <row r="7" spans="1:19" ht="16.5">
+    <row r="7" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A7" s="8">
         <v>6</v>
       </c>
@@ -1712,7 +1620,7 @@
       <c r="R7" s="18"/>
       <c r="S7" s="4"/>
     </row>
-    <row r="8" spans="1:19" ht="16.5">
+    <row r="8" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A8" s="8">
         <v>7</v>
       </c>
@@ -1761,7 +1669,7 @@
       <c r="R8" s="18"/>
       <c r="S8" s="4"/>
     </row>
-    <row r="9" spans="1:19" ht="16.5">
+    <row r="9" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A9" s="8">
         <v>8</v>
       </c>
@@ -1810,7 +1718,7 @@
       <c r="R9" s="18"/>
       <c r="S9" s="4"/>
     </row>
-    <row r="10" spans="1:19" ht="16.5">
+    <row r="10" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A10" s="8">
         <v>9</v>
       </c>
@@ -1859,7 +1767,7 @@
       <c r="R10" s="18"/>
       <c r="S10" s="4"/>
     </row>
-    <row r="11" spans="1:19" ht="16.5">
+    <row r="11" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A11" s="8">
         <v>10</v>
       </c>
@@ -1908,7 +1816,7 @@
       <c r="R11" s="18"/>
       <c r="S11" s="4"/>
     </row>
-    <row r="12" spans="1:19" ht="16.5">
+    <row r="12" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A12" s="8">
         <v>11</v>
       </c>
@@ -1957,7 +1865,7 @@
       <c r="R12" s="18"/>
       <c r="S12" s="4"/>
     </row>
-    <row r="13" spans="1:19" ht="16.5">
+    <row r="13" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A13" s="8">
         <v>12</v>
       </c>
@@ -2006,7 +1914,7 @@
       <c r="R13" s="18"/>
       <c r="S13" s="4"/>
     </row>
-    <row r="14" spans="1:19" ht="16.5">
+    <row r="14" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A14" s="8">
         <v>13</v>
       </c>
@@ -2055,7 +1963,7 @@
       <c r="R14" s="18"/>
       <c r="S14" s="4"/>
     </row>
-    <row r="15" spans="1:19" ht="16.5">
+    <row r="15" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A15" s="8">
         <v>14</v>
       </c>
@@ -2104,7 +2012,7 @@
       <c r="R15" s="18"/>
       <c r="S15" s="4"/>
     </row>
-    <row r="16" spans="1:19" ht="16.5">
+    <row r="16" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A16" s="8">
         <v>15</v>
       </c>
@@ -2153,7 +2061,7 @@
       <c r="R16" s="18"/>
       <c r="S16" s="4"/>
     </row>
-    <row r="17" spans="1:20" ht="16.5">
+    <row r="17" spans="1:20" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A17" s="8">
         <v>16</v>
       </c>
@@ -2188,17 +2096,21 @@
       <c r="L17" s="18" t="s">
         <v>119</v>
       </c>
-      <c r="M17" s="20"/>
+      <c r="M17" s="20" t="s">
+        <v>120</v>
+      </c>
       <c r="N17" s="21">
         <v>42479</v>
       </c>
-      <c r="O17" s="20"/>
+      <c r="O17" s="20" t="s">
+        <v>121</v>
+      </c>
       <c r="P17" s="7"/>
       <c r="Q17" s="7"/>
       <c r="R17" s="18"/>
       <c r="S17" s="4"/>
     </row>
-    <row r="18" spans="1:20" ht="16.5">
+    <row r="18" spans="1:20" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A18" s="8">
         <v>17</v>
       </c>
@@ -2247,7 +2159,7 @@
       <c r="R18" s="7"/>
       <c r="S18" s="4"/>
     </row>
-    <row r="19" spans="1:20" ht="16.5">
+    <row r="19" spans="1:20" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A19" s="8">
         <v>18</v>
       </c>
@@ -2296,7 +2208,7 @@
       <c r="R19" s="7"/>
       <c r="S19" s="4"/>
     </row>
-    <row r="20" spans="1:20" ht="16.5">
+    <row r="20" spans="1:20" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A20" s="8">
         <v>19</v>
       </c>
@@ -2345,7 +2257,7 @@
       <c r="R20" s="7"/>
       <c r="S20" s="4"/>
     </row>
-    <row r="21" spans="1:20" ht="16.5">
+    <row r="21" spans="1:20" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A21" s="8">
         <v>20</v>
       </c>
@@ -2394,7 +2306,7 @@
       <c r="R21" s="7"/>
       <c r="S21" s="4"/>
     </row>
-    <row r="22" spans="1:20" ht="16.5">
+    <row r="22" spans="1:20" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A22" s="8">
         <v>21</v>
       </c>
@@ -2443,7 +2355,7 @@
       <c r="R22" s="17"/>
       <c r="S22" s="4"/>
     </row>
-    <row r="23" spans="1:20" s="40" customFormat="1" ht="16.5">
+    <row r="23" spans="1:20" s="30" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A23" s="8">
         <v>22</v>
       </c>
@@ -2459,23 +2371,23 @@
       <c r="E23" s="8" t="s">
         <v>32</v>
       </c>
-      <c r="F23" s="34">
+      <c r="F23" s="24">
         <v>42475</v>
       </c>
       <c r="G23" s="8" t="s">
         <v>75</v>
       </c>
-      <c r="H23" s="34">
-        <v>42475</v>
-      </c>
-      <c r="I23" s="35"/>
+      <c r="H23" s="24">
+        <v>42475</v>
+      </c>
+      <c r="I23" s="25"/>
       <c r="J23" s="8" t="s">
         <v>52</v>
       </c>
       <c r="K23" s="8" t="s">
         <v>48</v>
       </c>
-      <c r="L23" s="36" t="s">
+      <c r="L23" s="26" t="s">
         <v>123</v>
       </c>
       <c r="M23" s="20" t="s">
@@ -2487,56 +2399,57 @@
       <c r="O23" s="20" t="s">
         <v>121</v>
       </c>
-      <c r="P23" s="37"/>
-      <c r="Q23" s="37"/>
-      <c r="R23" s="37"/>
-      <c r="S23" s="38"/>
-      <c r="T23" s="39"/>
-    </row>
-    <row r="24" spans="1:20" ht="16.5">
-      <c r="A24" s="24">
+      <c r="P23" s="27"/>
+      <c r="Q23" s="27"/>
+      <c r="R23" s="27"/>
+      <c r="S23" s="28"/>
+      <c r="T23" s="29"/>
+    </row>
+    <row r="24" spans="1:20" s="30" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="A24" s="8">
         <v>23</v>
       </c>
-      <c r="B24" s="25" t="s">
+      <c r="B24" s="23" t="s">
         <v>102</v>
       </c>
-      <c r="C24" s="24" t="s">
+      <c r="C24" s="8" t="s">
         <v>77</v>
       </c>
-      <c r="D24" s="24" t="s">
+      <c r="D24" s="8" t="s">
         <v>37</v>
       </c>
-      <c r="E24" s="24" t="s">
-        <v>32</v>
-      </c>
-      <c r="F24" s="26">
-        <v>42475</v>
-      </c>
-      <c r="G24" s="24" t="s">
-        <v>32</v>
-      </c>
-      <c r="H24" s="26">
-        <v>42475</v>
-      </c>
-      <c r="I24" s="27"/>
-      <c r="J24" s="24" t="s">
+      <c r="E24" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="F24" s="24">
+        <v>42475</v>
+      </c>
+      <c r="G24" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="H24" s="24">
+        <v>42475</v>
+      </c>
+      <c r="I24" s="25"/>
+      <c r="J24" s="8" t="s">
         <v>69</v>
       </c>
-      <c r="K24" s="24" t="s">
+      <c r="K24" s="8" t="s">
         <v>48</v>
       </c>
-      <c r="L24" s="32"/>
-      <c r="M24" s="29"/>
-      <c r="N24" s="30"/>
-      <c r="O24" s="29"/>
-      <c r="P24" s="28"/>
-      <c r="Q24" s="28"/>
-      <c r="R24" s="28"/>
-      <c r="S24" s="31" t="s">
+      <c r="L24" s="26"/>
+      <c r="M24" s="20"/>
+      <c r="N24" s="21"/>
+      <c r="O24" s="20"/>
+      <c r="P24" s="27"/>
+      <c r="Q24" s="27"/>
+      <c r="R24" s="27"/>
+      <c r="S24" s="25" t="s">
         <v>124</v>
       </c>
-    </row>
-    <row r="25" spans="1:20" s="40" customFormat="1" ht="16.5">
+      <c r="T24" s="29"/>
+    </row>
+    <row r="25" spans="1:20" s="30" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A25" s="8">
         <v>24</v>
       </c>
@@ -2552,23 +2465,23 @@
       <c r="E25" s="8" t="s">
         <v>32</v>
       </c>
-      <c r="F25" s="34">
+      <c r="F25" s="24">
         <v>42475</v>
       </c>
       <c r="G25" s="8" t="s">
         <v>75</v>
       </c>
-      <c r="H25" s="34">
-        <v>42475</v>
-      </c>
-      <c r="I25" s="35"/>
+      <c r="H25" s="24">
+        <v>42475</v>
+      </c>
+      <c r="I25" s="25"/>
       <c r="J25" s="8" t="s">
         <v>63</v>
       </c>
       <c r="K25" s="8" t="s">
         <v>48</v>
       </c>
-      <c r="L25" s="36" t="s">
+      <c r="L25" s="26" t="s">
         <v>123</v>
       </c>
       <c r="M25" s="20" t="s">
@@ -2580,56 +2493,57 @@
       <c r="O25" s="20" t="s">
         <v>121</v>
       </c>
-      <c r="P25" s="37"/>
-      <c r="Q25" s="37"/>
-      <c r="R25" s="37"/>
-      <c r="S25" s="38"/>
-      <c r="T25" s="39"/>
-    </row>
-    <row r="26" spans="1:20" ht="16.5">
-      <c r="A26" s="24">
+      <c r="P25" s="27"/>
+      <c r="Q25" s="27"/>
+      <c r="R25" s="27"/>
+      <c r="S25" s="28"/>
+      <c r="T25" s="29"/>
+    </row>
+    <row r="26" spans="1:20" s="30" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="A26" s="8">
         <v>25</v>
       </c>
-      <c r="B26" s="25" t="s">
+      <c r="B26" s="23" t="s">
         <v>104</v>
       </c>
-      <c r="C26" s="24" t="s">
+      <c r="C26" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="D26" s="24" t="s">
+      <c r="D26" s="8" t="s">
         <v>37</v>
       </c>
-      <c r="E26" s="24" t="s">
-        <v>32</v>
-      </c>
-      <c r="F26" s="26">
-        <v>42475</v>
-      </c>
-      <c r="G26" s="24" t="s">
+      <c r="E26" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="F26" s="24">
+        <v>42475</v>
+      </c>
+      <c r="G26" s="8" t="s">
         <v>75</v>
       </c>
-      <c r="H26" s="26">
-        <v>42475</v>
-      </c>
-      <c r="I26" s="27"/>
-      <c r="J26" s="24" t="s">
+      <c r="H26" s="24">
+        <v>42475</v>
+      </c>
+      <c r="I26" s="25"/>
+      <c r="J26" s="8" t="s">
         <v>70</v>
       </c>
-      <c r="K26" s="24" t="s">
+      <c r="K26" s="8" t="s">
         <v>48</v>
       </c>
-      <c r="L26" s="28"/>
-      <c r="M26" s="28"/>
-      <c r="N26" s="33"/>
-      <c r="O26" s="31"/>
-      <c r="P26" s="28"/>
-      <c r="Q26" s="28"/>
-      <c r="R26" s="28"/>
-      <c r="S26" s="31" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="27" spans="1:20" ht="16.5">
+      <c r="L26" s="27"/>
+      <c r="M26" s="27"/>
+      <c r="N26" s="31"/>
+      <c r="O26" s="28"/>
+      <c r="P26" s="27"/>
+      <c r="Q26" s="27"/>
+      <c r="R26" s="27"/>
+      <c r="S26" s="25" t="s">
+        <v>125</v>
+      </c>
+      <c r="T26" s="29"/>
+    </row>
+    <row r="27" spans="1:20" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A27" s="8">
         <v>26</v>
       </c>
@@ -2678,7 +2592,7 @@
       <c r="R27" s="7"/>
       <c r="S27" s="4"/>
     </row>
-    <row r="28" spans="1:20" ht="16.5">
+    <row r="28" spans="1:20" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A28" s="8">
         <v>27</v>
       </c>
@@ -2727,7 +2641,7 @@
       <c r="R28" s="7"/>
       <c r="S28" s="4"/>
     </row>
-    <row r="29" spans="1:20" ht="16.5">
+    <row r="29" spans="1:20" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A29" s="8">
         <v>28</v>
       </c>
@@ -2776,7 +2690,7 @@
       <c r="R29" s="7"/>
       <c r="S29" s="4"/>
     </row>
-    <row r="30" spans="1:20" ht="16.5">
+    <row r="30" spans="1:20" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A30" s="8">
         <v>29</v>
       </c>
@@ -2825,7 +2739,7 @@
       <c r="R30" s="7"/>
       <c r="S30" s="4"/>
     </row>
-    <row r="31" spans="1:20" ht="16.5">
+    <row r="31" spans="1:20" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A31" s="8">
         <v>30</v>
       </c>
@@ -2874,7 +2788,7 @@
       <c r="R31" s="7"/>
       <c r="S31" s="4"/>
     </row>
-    <row r="32" spans="1:20" ht="16.5">
+    <row r="32" spans="1:20" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A32" s="8">
         <v>31</v>
       </c>
@@ -2923,7 +2837,7 @@
       <c r="R32" s="7"/>
       <c r="S32" s="4"/>
     </row>
-    <row r="33" spans="1:19" ht="16.5">
+    <row r="33" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A33" s="8">
         <v>32</v>
       </c>
@@ -2972,7 +2886,7 @@
       <c r="R33" s="7"/>
       <c r="S33" s="4"/>
     </row>
-    <row r="34" spans="1:19" ht="33">
+    <row r="34" spans="1:19" ht="33" x14ac:dyDescent="0.15">
       <c r="A34" s="8">
         <v>33</v>
       </c>
@@ -3021,7 +2935,7 @@
       <c r="R34" s="7"/>
       <c r="S34" s="4"/>
     </row>
-    <row r="35" spans="1:19" ht="16.5">
+    <row r="35" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A35" s="8">
         <v>34</v>
       </c>
@@ -3070,7 +2984,7 @@
       <c r="R35" s="7"/>
       <c r="S35" s="4"/>
     </row>
-    <row r="36" spans="1:19" ht="16.5">
+    <row r="36" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A36" s="8">
         <v>35</v>
       </c>
@@ -3119,7 +3033,7 @@
       <c r="R36" s="7"/>
       <c r="S36" s="4"/>
     </row>
-    <row r="37" spans="1:19" ht="33">
+    <row r="37" spans="1:19" ht="33" x14ac:dyDescent="0.15">
       <c r="A37" s="8">
         <v>36</v>
       </c>
@@ -3168,7 +3082,7 @@
       <c r="R37" s="7"/>
       <c r="S37" s="4"/>
     </row>
-    <row r="38" spans="1:19" ht="16.5">
+    <row r="38" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A38" s="8">
         <v>37</v>
       </c>
@@ -3217,7 +3131,7 @@
       <c r="R38" s="7"/>
       <c r="S38" s="4"/>
     </row>
-    <row r="39" spans="1:19" ht="16.5">
+    <row r="39" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A39" s="8">
         <v>38</v>
       </c>
@@ -3260,7 +3174,7 @@
       <c r="R39" s="7"/>
       <c r="S39" s="4"/>
     </row>
-    <row r="40" spans="1:19" ht="16.5">
+    <row r="40" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A40" s="8">
         <v>39</v>
       </c>
@@ -3309,7 +3223,7 @@
       <c r="R40" s="7"/>
       <c r="S40" s="4"/>
     </row>
-    <row r="41" spans="1:19">
+    <row r="41" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A41" s="7"/>
       <c r="B41" s="4"/>
       <c r="C41" s="7"/>
@@ -3330,7 +3244,7 @@
       <c r="R41" s="7"/>
       <c r="S41" s="4"/>
     </row>
-    <row r="42" spans="1:19">
+    <row r="42" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A42" s="7"/>
       <c r="B42" s="4"/>
       <c r="C42" s="7"/>
@@ -3351,7 +3265,7 @@
       <c r="R42" s="7"/>
       <c r="S42" s="4"/>
     </row>
-    <row r="43" spans="1:19">
+    <row r="43" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A43" s="7"/>
       <c r="B43" s="4"/>
       <c r="C43" s="7"/>
@@ -3372,7 +3286,7 @@
       <c r="R43" s="7"/>
       <c r="S43" s="4"/>
     </row>
-    <row r="44" spans="1:19">
+    <row r="44" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A44" s="7"/>
       <c r="B44" s="4"/>
       <c r="C44" s="7"/>
@@ -3393,7 +3307,7 @@
       <c r="R44" s="7"/>
       <c r="S44" s="4"/>
     </row>
-    <row r="45" spans="1:19">
+    <row r="45" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A45" s="7"/>
       <c r="B45" s="4"/>
       <c r="C45" s="7"/>
@@ -3414,7 +3328,7 @@
       <c r="R45" s="7"/>
       <c r="S45" s="4"/>
     </row>
-    <row r="46" spans="1:19">
+    <row r="46" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A46" s="7"/>
       <c r="B46" s="4"/>
       <c r="C46" s="7"/>
@@ -3435,7 +3349,7 @@
       <c r="R46" s="7"/>
       <c r="S46" s="4"/>
     </row>
-    <row r="47" spans="1:19">
+    <row r="47" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A47" s="7"/>
       <c r="B47" s="4"/>
       <c r="C47" s="7"/>
@@ -3456,7 +3370,7 @@
       <c r="R47" s="7"/>
       <c r="S47" s="4"/>
     </row>
-    <row r="48" spans="1:19">
+    <row r="48" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A48" s="7"/>
       <c r="B48" s="4"/>
       <c r="C48" s="7"/>
@@ -3477,7 +3391,7 @@
       <c r="R48" s="7"/>
       <c r="S48" s="4"/>
     </row>
-    <row r="49" spans="1:19">
+    <row r="49" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A49" s="7"/>
       <c r="B49" s="4"/>
       <c r="C49" s="7"/>
@@ -3498,7 +3412,7 @@
       <c r="R49" s="7"/>
       <c r="S49" s="4"/>
     </row>
-    <row r="50" spans="1:19">
+    <row r="50" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A50" s="7"/>
       <c r="B50" s="4"/>
       <c r="C50" s="7"/>
@@ -3519,7 +3433,7 @@
       <c r="R50" s="7"/>
       <c r="S50" s="4"/>
     </row>
-    <row r="51" spans="1:19">
+    <row r="51" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A51" s="7"/>
       <c r="B51" s="4"/>
       <c r="C51" s="7"/>
@@ -3540,7 +3454,7 @@
       <c r="R51" s="7"/>
       <c r="S51" s="4"/>
     </row>
-    <row r="52" spans="1:19">
+    <row r="52" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A52" s="7"/>
       <c r="B52" s="4"/>
       <c r="C52" s="7"/>
@@ -3561,7 +3475,7 @@
       <c r="R52" s="7"/>
       <c r="S52" s="4"/>
     </row>
-    <row r="53" spans="1:19">
+    <row r="53" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A53" s="7"/>
       <c r="B53" s="4"/>
       <c r="C53" s="7"/>
@@ -3582,7 +3496,7 @@
       <c r="R53" s="7"/>
       <c r="S53" s="4"/>
     </row>
-    <row r="54" spans="1:19">
+    <row r="54" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A54" s="7"/>
       <c r="B54" s="4"/>
       <c r="C54" s="7"/>
@@ -3603,7 +3517,7 @@
       <c r="R54" s="7"/>
       <c r="S54" s="4"/>
     </row>
-    <row r="55" spans="1:19">
+    <row r="55" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A55" s="7"/>
       <c r="B55" s="4"/>
       <c r="C55" s="7"/>
@@ -3624,7 +3538,7 @@
       <c r="R55" s="7"/>
       <c r="S55" s="4"/>
     </row>
-    <row r="56" spans="1:19">
+    <row r="56" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A56" s="7"/>
       <c r="B56" s="4"/>
       <c r="C56" s="7"/>
@@ -3645,7 +3559,7 @@
       <c r="R56" s="7"/>
       <c r="S56" s="4"/>
     </row>
-    <row r="57" spans="1:19">
+    <row r="57" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A57" s="7"/>
       <c r="B57" s="4"/>
       <c r="C57" s="7"/>
@@ -3666,7 +3580,7 @@
       <c r="R57" s="7"/>
       <c r="S57" s="4"/>
     </row>
-    <row r="58" spans="1:19">
+    <row r="58" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A58" s="7"/>
       <c r="B58" s="4"/>
       <c r="C58" s="7"/>
@@ -3687,7 +3601,7 @@
       <c r="R58" s="7"/>
       <c r="S58" s="4"/>
     </row>
-    <row r="59" spans="1:19">
+    <row r="59" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A59" s="7"/>
       <c r="B59" s="4"/>
       <c r="C59" s="7"/>
@@ -3708,7 +3622,7 @@
       <c r="R59" s="7"/>
       <c r="S59" s="4"/>
     </row>
-    <row r="60" spans="1:19">
+    <row r="60" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A60" s="7"/>
       <c r="B60" s="4"/>
       <c r="C60" s="7"/>
@@ -3729,7 +3643,7 @@
       <c r="R60" s="7"/>
       <c r="S60" s="4"/>
     </row>
-    <row r="61" spans="1:19">
+    <row r="61" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A61" s="7"/>
       <c r="B61" s="4"/>
       <c r="C61" s="7"/>
@@ -3750,7 +3664,7 @@
       <c r="R61" s="7"/>
       <c r="S61" s="4"/>
     </row>
-    <row r="62" spans="1:19">
+    <row r="62" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A62" s="7"/>
       <c r="B62" s="4"/>
       <c r="C62" s="7"/>
@@ -3771,7 +3685,7 @@
       <c r="R62" s="7"/>
       <c r="S62" s="4"/>
     </row>
-    <row r="63" spans="1:19">
+    <row r="63" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A63" s="7"/>
       <c r="B63" s="4"/>
       <c r="C63" s="7"/>
@@ -3792,7 +3706,7 @@
       <c r="R63" s="7"/>
       <c r="S63" s="4"/>
     </row>
-    <row r="64" spans="1:19">
+    <row r="64" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A64" s="7"/>
       <c r="B64" s="4"/>
       <c r="C64" s="7"/>
@@ -3810,7 +3724,7 @@
       <c r="O64" s="4"/>
       <c r="S64" s="4"/>
     </row>
-    <row r="65" spans="1:19">
+    <row r="65" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A65" s="7"/>
       <c r="B65" s="4"/>
       <c r="C65" s="7"/>
@@ -3828,7 +3742,7 @@
       <c r="O65" s="4"/>
       <c r="S65" s="4"/>
     </row>
-    <row r="66" spans="1:19">
+    <row r="66" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A66" s="7"/>
       <c r="B66" s="4"/>
       <c r="C66" s="7"/>
@@ -3846,7 +3760,7 @@
       <c r="O66" s="4"/>
       <c r="S66" s="4"/>
     </row>
-    <row r="67" spans="1:19">
+    <row r="67" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A67" s="7"/>
       <c r="B67" s="4"/>
       <c r="C67" s="7"/>
@@ -3864,7 +3778,7 @@
       <c r="O67" s="4"/>
       <c r="S67" s="4"/>
     </row>
-    <row r="68" spans="1:19">
+    <row r="68" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A68" s="7"/>
       <c r="B68" s="4"/>
       <c r="C68" s="7"/>
@@ -3882,7 +3796,7 @@
       <c r="O68" s="4"/>
       <c r="S68" s="4"/>
     </row>
-    <row r="69" spans="1:19">
+    <row r="69" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A69" s="7"/>
       <c r="B69" s="4"/>
       <c r="C69" s="7"/>
@@ -3900,7 +3814,7 @@
       <c r="O69" s="4"/>
       <c r="S69" s="4"/>
     </row>
-    <row r="70" spans="1:19">
+    <row r="70" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A70" s="7"/>
       <c r="B70" s="4"/>
       <c r="C70" s="7"/>
@@ -3918,7 +3832,7 @@
       <c r="O70" s="4"/>
       <c r="S70" s="4"/>
     </row>
-    <row r="71" spans="1:19">
+    <row r="71" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A71" s="7"/>
       <c r="B71" s="4"/>
       <c r="C71" s="7"/>
@@ -3936,7 +3850,7 @@
       <c r="O71" s="4"/>
       <c r="S71" s="4"/>
     </row>
-    <row r="72" spans="1:19">
+    <row r="72" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A72" s="7"/>
       <c r="B72" s="4"/>
       <c r="C72" s="7"/>
@@ -3954,7 +3868,7 @@
       <c r="O72" s="4"/>
       <c r="S72" s="4"/>
     </row>
-    <row r="73" spans="1:19">
+    <row r="73" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A73" s="7"/>
       <c r="B73" s="4"/>
       <c r="C73" s="7"/>
@@ -3972,7 +3886,7 @@
       <c r="O73" s="4"/>
       <c r="S73" s="4"/>
     </row>
-    <row r="74" spans="1:19">
+    <row r="74" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A74" s="7"/>
       <c r="B74" s="4"/>
       <c r="C74" s="7"/>
@@ -3990,7 +3904,7 @@
       <c r="O74" s="4"/>
       <c r="S74" s="4"/>
     </row>
-    <row r="75" spans="1:19">
+    <row r="75" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A75" s="7"/>
       <c r="B75" s="4"/>
       <c r="C75" s="7"/>
@@ -4008,7 +3922,7 @@
       <c r="O75" s="4"/>
       <c r="S75" s="4"/>
     </row>
-    <row r="76" spans="1:19">
+    <row r="76" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A76" s="7"/>
       <c r="B76" s="4"/>
       <c r="C76" s="7"/>
@@ -4026,7 +3940,7 @@
       <c r="O76" s="4"/>
       <c r="S76" s="4"/>
     </row>
-    <row r="77" spans="1:19">
+    <row r="77" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A77" s="7"/>
       <c r="B77" s="4"/>
       <c r="C77" s="7"/>
@@ -4044,7 +3958,7 @@
       <c r="O77" s="4"/>
       <c r="S77" s="4"/>
     </row>
-    <row r="78" spans="1:19">
+    <row r="78" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A78" s="7"/>
       <c r="B78" s="4"/>
       <c r="C78" s="7"/>
@@ -4062,7 +3976,7 @@
       <c r="O78" s="4"/>
       <c r="S78" s="4"/>
     </row>
-    <row r="79" spans="1:19">
+    <row r="79" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A79" s="7"/>
       <c r="B79" s="4"/>
       <c r="C79" s="7"/>
@@ -4080,7 +3994,7 @@
       <c r="O79" s="4"/>
       <c r="S79" s="4"/>
     </row>
-    <row r="80" spans="1:19">
+    <row r="80" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A80" s="7"/>
       <c r="B80" s="4"/>
       <c r="C80" s="7"/>
@@ -4098,7 +4012,7 @@
       <c r="O80" s="4"/>
       <c r="S80" s="4"/>
     </row>
-    <row r="81" spans="1:19">
+    <row r="81" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A81" s="7"/>
       <c r="B81" s="4"/>
       <c r="C81" s="7"/>
@@ -4116,7 +4030,7 @@
       <c r="O81" s="4"/>
       <c r="S81" s="4"/>
     </row>
-    <row r="82" spans="1:19">
+    <row r="82" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A82" s="7"/>
       <c r="B82" s="4"/>
       <c r="C82" s="7"/>
@@ -4134,7 +4048,7 @@
       <c r="O82" s="4"/>
       <c r="S82" s="4"/>
     </row>
-    <row r="83" spans="1:19">
+    <row r="83" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A83" s="7"/>
       <c r="B83" s="4"/>
       <c r="C83" s="7"/>
@@ -4152,7 +4066,7 @@
       <c r="O83" s="4"/>
       <c r="S83" s="4"/>
     </row>
-    <row r="84" spans="1:19">
+    <row r="84" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A84" s="7"/>
       <c r="B84" s="4"/>
       <c r="C84" s="7"/>
@@ -4170,7 +4084,7 @@
       <c r="O84" s="4"/>
       <c r="S84" s="4"/>
     </row>
-    <row r="85" spans="1:19">
+    <row r="85" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A85" s="7"/>
       <c r="B85" s="4"/>
       <c r="C85" s="7"/>
@@ -4188,7 +4102,7 @@
       <c r="O85" s="4"/>
       <c r="S85" s="4"/>
     </row>
-    <row r="86" spans="1:19">
+    <row r="86" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A86" s="7"/>
       <c r="B86" s="4"/>
       <c r="C86" s="7"/>
@@ -4206,7 +4120,7 @@
       <c r="O86" s="4"/>
       <c r="S86" s="4"/>
     </row>
-    <row r="87" spans="1:19">
+    <row r="87" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A87" s="7"/>
       <c r="B87" s="4"/>
       <c r="C87" s="7"/>
@@ -4224,7 +4138,7 @@
       <c r="O87" s="4"/>
       <c r="S87" s="4"/>
     </row>
-    <row r="88" spans="1:19">
+    <row r="88" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A88" s="7"/>
       <c r="B88" s="4"/>
       <c r="C88" s="7"/>
@@ -4242,7 +4156,7 @@
       <c r="O88" s="4"/>
       <c r="S88" s="4"/>
     </row>
-    <row r="89" spans="1:19">
+    <row r="89" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A89" s="7"/>
       <c r="B89" s="4"/>
       <c r="C89" s="7"/>
@@ -4260,7 +4174,7 @@
       <c r="O89" s="4"/>
       <c r="S89" s="4"/>
     </row>
-    <row r="90" spans="1:19">
+    <row r="90" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A90" s="7"/>
       <c r="B90" s="4"/>
       <c r="C90" s="7"/>
@@ -4278,7 +4192,7 @@
       <c r="O90" s="4"/>
       <c r="S90" s="4"/>
     </row>
-    <row r="91" spans="1:19">
+    <row r="91" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A91" s="7"/>
       <c r="B91" s="4"/>
       <c r="C91" s="7"/>
@@ -4296,7 +4210,7 @@
       <c r="O91" s="4"/>
       <c r="S91" s="4"/>
     </row>
-    <row r="92" spans="1:19">
+    <row r="92" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A92" s="7"/>
       <c r="B92" s="4"/>
       <c r="C92" s="7"/>
@@ -4314,7 +4228,7 @@
       <c r="O92" s="4"/>
       <c r="S92" s="4"/>
     </row>
-    <row r="93" spans="1:19">
+    <row r="93" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A93" s="7"/>
       <c r="B93" s="4"/>
       <c r="C93" s="7"/>
@@ -4332,7 +4246,7 @@
       <c r="O93" s="4"/>
       <c r="S93" s="4"/>
     </row>
-    <row r="94" spans="1:19">
+    <row r="94" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A94" s="7"/>
       <c r="B94" s="4"/>
       <c r="C94" s="7"/>
@@ -4350,7 +4264,7 @@
       <c r="O94" s="4"/>
       <c r="S94" s="4"/>
     </row>
-    <row r="95" spans="1:19">
+    <row r="95" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A95" s="7"/>
       <c r="B95" s="4"/>
       <c r="C95" s="7"/>
@@ -4368,7 +4282,7 @@
       <c r="O95" s="4"/>
       <c r="S95" s="4"/>
     </row>
-    <row r="96" spans="1:19">
+    <row r="96" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A96" s="7"/>
       <c r="B96" s="4"/>
       <c r="C96" s="7"/>
@@ -4386,7 +4300,7 @@
       <c r="O96" s="4"/>
       <c r="S96" s="4"/>
     </row>
-    <row r="97" spans="1:19">
+    <row r="97" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A97" s="7"/>
       <c r="B97" s="4"/>
       <c r="C97" s="7"/>
@@ -4404,7 +4318,7 @@
       <c r="O97" s="4"/>
       <c r="S97" s="4"/>
     </row>
-    <row r="98" spans="1:19">
+    <row r="98" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A98" s="7"/>
       <c r="B98" s="4"/>
       <c r="C98" s="7"/>
@@ -4423,9 +4337,7 @@
       <c r="S98" s="4"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:S40">
-    <filterColumn colId="11"/>
-  </autoFilter>
+  <autoFilter ref="A1:S40"/>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="300" r:id="rId1"/>
@@ -4433,14 +4345,14 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A2" sqref="A2:XFD2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="17" customWidth="1"/>
     <col min="2" max="2" width="43.25" customWidth="1"/>
@@ -4451,7 +4363,7 @@
     <col min="8" max="8" width="15.25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A1" s="12" t="s">
         <v>18</v>
       </c>
@@ -4477,7 +4389,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="2" spans="1:8" s="2" customFormat="1">
+    <row r="2" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A2" s="16"/>
       <c r="B2" s="14"/>
       <c r="C2" s="14"/>
@@ -4487,7 +4399,7 @@
       <c r="G2" s="14"/>
       <c r="H2" s="16"/>
     </row>
-    <row r="3" spans="1:8">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A3" s="13"/>
       <c r="B3" s="13"/>
       <c r="C3" s="13"/>
@@ -4497,7 +4409,7 @@
       <c r="G3" s="13"/>
       <c r="H3" s="13"/>
     </row>
-    <row r="4" spans="1:8">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A4" s="13"/>
       <c r="B4" s="13"/>
       <c r="C4" s="13"/>
@@ -4507,7 +4419,7 @@
       <c r="G4" s="13"/>
       <c r="H4" s="13"/>
     </row>
-    <row r="5" spans="1:8">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A5" s="13"/>
       <c r="B5" s="13"/>
       <c r="C5" s="13"/>
@@ -4517,7 +4429,7 @@
       <c r="G5" s="13"/>
       <c r="H5" s="13"/>
     </row>
-    <row r="6" spans="1:8">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A6" s="13"/>
       <c r="B6" s="13"/>
       <c r="C6" s="13"/>
@@ -4527,7 +4439,7 @@
       <c r="G6" s="13"/>
       <c r="H6" s="13"/>
     </row>
-    <row r="7" spans="1:8">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A7" s="13"/>
       <c r="B7" s="13"/>
       <c r="C7" s="13"/>
@@ -4537,7 +4449,7 @@
       <c r="G7" s="13"/>
       <c r="H7" s="13"/>
     </row>
-    <row r="8" spans="1:8">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A8" s="13"/>
       <c r="B8" s="13"/>
       <c r="C8" s="13"/>
@@ -4547,7 +4459,7 @@
       <c r="G8" s="13"/>
       <c r="H8" s="13"/>
     </row>
-    <row r="9" spans="1:8">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A9" s="13"/>
       <c r="B9" s="13"/>
       <c r="C9" s="13"/>
@@ -4557,7 +4469,7 @@
       <c r="G9" s="13"/>
       <c r="H9" s="13"/>
     </row>
-    <row r="10" spans="1:8">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A10" s="13"/>
       <c r="B10" s="13"/>
       <c r="C10" s="13"/>
@@ -4567,7 +4479,7 @@
       <c r="G10" s="13"/>
       <c r="H10" s="13"/>
     </row>
-    <row r="11" spans="1:8">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A11" s="13"/>
       <c r="B11" s="13"/>
       <c r="C11" s="13"/>
@@ -4577,7 +4489,7 @@
       <c r="G11" s="13"/>
       <c r="H11" s="13"/>
     </row>
-    <row r="12" spans="1:8">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A12" s="13"/>
       <c r="B12" s="13"/>
       <c r="C12" s="13"/>
@@ -4587,7 +4499,7 @@
       <c r="G12" s="13"/>
       <c r="H12" s="13"/>
     </row>
-    <row r="13" spans="1:8">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A13" s="13"/>
       <c r="B13" s="13"/>
       <c r="C13" s="13"/>
@@ -4597,7 +4509,7 @@
       <c r="G13" s="13"/>
       <c r="H13" s="13"/>
     </row>
-    <row r="14" spans="1:8">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A14" s="13"/>
       <c r="B14" s="13"/>
       <c r="C14" s="13"/>
@@ -4607,7 +4519,7 @@
       <c r="G14" s="13"/>
       <c r="H14" s="13"/>
     </row>
-    <row r="15" spans="1:8">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A15" s="13"/>
       <c r="B15" s="13"/>
       <c r="C15" s="13"/>
@@ -4617,7 +4529,7 @@
       <c r="G15" s="13"/>
       <c r="H15" s="13"/>
     </row>
-    <row r="16" spans="1:8">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A16" s="13"/>
       <c r="B16" s="13"/>
       <c r="C16" s="13"/>
@@ -4627,7 +4539,7 @@
       <c r="G16" s="13"/>
       <c r="H16" s="13"/>
     </row>
-    <row r="17" spans="1:8">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A17" s="13"/>
       <c r="B17" s="13"/>
       <c r="C17" s="13"/>
@@ -4637,7 +4549,7 @@
       <c r="G17" s="13"/>
       <c r="H17" s="13"/>
     </row>
-    <row r="18" spans="1:8">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A18" s="13"/>
       <c r="B18" s="13"/>
       <c r="C18" s="13"/>
@@ -4647,7 +4559,7 @@
       <c r="G18" s="13"/>
       <c r="H18" s="13"/>
     </row>
-    <row r="19" spans="1:8">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A19" s="13"/>
       <c r="B19" s="13"/>
       <c r="C19" s="13"/>
